--- a/data/evaluation/evaluation_South_Spring_Eggplants.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Eggplants.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1866.27935222672</v>
+        <v>1920.555668016194</v>
       </c>
       <c r="C3" t="n">
-        <v>7624607.542879944</v>
+        <v>7696862.888274681</v>
       </c>
       <c r="D3" t="n">
-        <v>2761.269190586087</v>
+        <v>2774.322059219996</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3631685995933746</v>
+        <v>0.3571336040167742</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1931.843815076897</v>
+        <v>1993.006437795776</v>
       </c>
       <c r="C4" t="n">
-        <v>7465863.486704943</v>
+        <v>7728304.443284482</v>
       </c>
       <c r="D4" t="n">
-        <v>2732.373233419063</v>
+        <v>2779.982813487249</v>
       </c>
       <c r="E4" t="n">
-        <v>0.37642740655906</v>
+        <v>0.3545075056379072</v>
       </c>
     </row>
     <row r="5">
